--- a/AMS_DDS_Conventies.xlsx
+++ b/AMS_DDS_Conventies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snbv-my.sharepoint.com/personal/arjen_rademaker_schiphol_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA644CA-BC56-4432-9176-E17BFE8AB465}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E923C4-8BED-4677-8723-370FE415B5B9}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="137">
   <si>
     <t>https://dds.schiphol.nl/asset/HoofdverdeelkastLaagspanning</t>
   </si>
@@ -438,9 +438,6 @@
     <t>AKR 1.05 Alarmklepruimte, 1.05.01.00, T1-01-R1272</t>
   </si>
   <si>
-    <t>AKR 1.05 Testafsluiter, 1.05.01.00, T1-01-R1272</t>
-  </si>
-  <si>
     <t>AKR 1.05 Diesel-pomp, 1.05.01.00.D, T1-01-R1272</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>IRI (o.b.v. DDS 3.5)</t>
+  </si>
+  <si>
+    <t>^\d{1}\.\d{2}\.\d{2}\.\d{2}(\.[A-Z]{1,3})?(\.\d{2})?$</t>
   </si>
 </sst>
 </file>
@@ -837,11 +837,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA06F8D5-91AC-47C4-8305-7327008941AA}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -861,7 +861,7 @@
         <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
@@ -1129,7 +1129,7 @@
         <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1152,7 +1152,7 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1168,15 +1168,6 @@
       <c r="D14" t="s">
         <v>89</v>
       </c>
-      <c r="E14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -1373,7 +1364,7 @@
         <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
         <v>98</v>
